--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E17"/>
+  <dimension ref="A1:E64"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -851,14 +851,1190 @@
           <t>discuss: discuss는 타동사</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>20230221</t>
-        </is>
+      <c r="D17" t="n">
+        <v>20230221</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
           <t>09시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>in order to 동사원형: ~하기 위해</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D18" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>20시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>familiar to 사람</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>사물</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>사람: familiar with 사물</t>
+        </is>
+      </c>
+      <c r="D19" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>20시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>A be devoted to 동명사: A가 ~하는 것에 헌신하다</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D20" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>21시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>like: 좋아하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D21" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>21시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>involve: 포함하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D22" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>21시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>cannot but 동사원형: ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D23" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>21시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>The 형용사 (주어) 복수동사</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>단수동사</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>복수동사</t>
+        </is>
+      </c>
+      <c r="D24" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>21시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>a great deal of 불가산명사: 많은 ~</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D25" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>21시 16분</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>mind: 꺼리다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D26" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>21시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>주어 had hardly[scarcely] 과거분사 ~ when[before] 주어 과거동사 ~: ~하자마자 …하다</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>had 주어</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>주어 had</t>
+        </is>
+      </c>
+      <c r="D27" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>21시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>be used to 명사/ 동명사</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>~하는 데 사용되다</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>~하는 것에 익숙하다</t>
+        </is>
+      </c>
+      <c r="D28" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>21시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>begin: 시작하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D29" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>21시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>lots of 가산명사, 불가산명사: 많은 ~</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>가산명사, 불가산명사</t>
+        </is>
+      </c>
+      <c r="D30" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>21시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>(대과거) If S 과거완료, S 조동사 과거 현재완료</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>조동사 과거 동사원형 (now)</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>조동사 과거 현재완료</t>
+        </is>
+      </c>
+      <c r="D31" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>21시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>offer: 제안하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="D32" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>21시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>respond to 동명사: ~에 응답하다</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D33" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>21시 31분</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>단위명사s of 명사</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>단위명사</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>단위명사s</t>
+        </is>
+      </c>
+      <c r="D34" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>21시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>No sooner had S pp than S 과거시제</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>before/when</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="D35" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>21시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>cease: 그만두다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D36" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>21시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>be exoected to 동사원형</t>
+        </is>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D37" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>21시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>a great[large] quantity of 불가산명사: 많은 ~</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D38" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>21시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>belong to 동명사: ~에 속하다</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D39" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>21시 41분</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>a multitude of 가산명사: 많은 ~</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>가산명사, 불가산명사</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D40" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21시 43분</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>The number of 복수명사 단수동사</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>복수동사</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>단수동사</t>
+        </is>
+      </c>
+      <c r="D41" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>21시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>be about to 동사원형: 막 ~하려 하다</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D42" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>21시 44분</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>intend: 의도하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D43" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>21시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>S wait for O</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>await</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>wait: wait는 자동사, await는 타동사</t>
+        </is>
+      </c>
+      <c r="D44" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>21시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>used to 동사원형: ~하곤 했다</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D45" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>21시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>be the last man to 동사원형: ~할 사람이 아니다</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D46" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>21시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>continue: 계속하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D47" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>21시 47분</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>have no choice but to 동사원형
+: ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D48" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>21시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>a great[large] amount of 불가산명사: 많은 ~</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D49" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>21시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>be known for: ~로 알려지다 (명성)</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="D50" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>21시 49분</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>a good deal of 불가산명사: 많은 ~</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>가산명사, 불가산명사</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D51" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>21시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>It be동사 형용사 for 목적격 to 동사원형</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="D52" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>21시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Hardly(Scarcely) had S pp before(when) S 과거시제</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>when</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>before/when</t>
+        </is>
+      </c>
+      <c r="D53" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>21시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>come to 동사원형: ~하게 되다</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D54" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>21시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>in addition to 동명사: ~이외에도, ~뿐만 아니라</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>동사원형/동명사</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D55" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>21시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>be tied to 동명사: ~하는 것과 관련되다</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D56" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>21시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>when it comes to 동명사: ~에 관해서라면</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D57" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>22시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>But for ＝ Without</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>가정법 과거</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>가정법 과거, 가정법 과거완료</t>
+        </is>
+      </c>
+      <c r="D58" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>22시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>react to 동명사: ~에 반응하다</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D59" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>22시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>hate: 싫어하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D60" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>22시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>be willing to 동사원형: 기꺼이 ~하다</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D61" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>22시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>(a) plenty of 가산명사, 불가산명사: 많은 ~</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>가산명사, 불가산명사</t>
+        </is>
+      </c>
+      <c r="D62" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>22시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>(혼합) If S 과거완료, S 조동사 과거 동사원형 (now)</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>R(-s/-es)</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>과거완료</t>
+        </is>
+      </c>
+      <c r="D63" t="n">
+        <v>20230222</v>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>22시 13분</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>숫자 단위명사s 형용사 명사</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>단위명사</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>단위명사s</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>20230222</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>22시 15분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E64"/>
+  <dimension ref="A1:E72"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2027,14 +2027,214 @@
           <t>단위명사s</t>
         </is>
       </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>20230222</t>
-        </is>
+      <c r="D64" t="n">
+        <v>20230222</v>
       </c>
       <c r="E64" t="inlineStr">
         <is>
           <t>22시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>allow O to R</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>to -ing</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>to R</t>
+        </is>
+      </c>
+      <c r="D65" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>20시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>존재하다</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>present</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>be present: 동사로 쓰인 present는 타동사로 목적어가 필요하다</t>
+        </is>
+      </c>
+      <c r="D66" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>20시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>a good deal of 불가산명사: 많은 ~</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>가산명사, 불가산명사</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D67" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>20시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>Were it not for：~이 없다면</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>가정법 과거, 가정법 과거완료</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>가정법 과거</t>
+        </is>
+      </c>
+      <c r="D68" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>20시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>lots of 가산명사, 불가산명사: 많은 ~</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>가산명사, 불가산명사</t>
+        </is>
+      </c>
+      <c r="D69" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>20시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>주어 had hardly[scarcely] 과거분사 ~ when[before] 주어 과거동사 ~: ~하자마자 …하다</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>have pp</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>과거동사</t>
+        </is>
+      </c>
+      <c r="D70" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>20시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>resist: 반대하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D71" t="n">
+        <v>20230331</v>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>20시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>choose: 선택하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>20230331</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>20시 11분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E72"/>
+  <dimension ref="A1:E148"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2227,14 +2227,1916 @@
           <t>to 동사원형</t>
         </is>
       </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>20230331</t>
-        </is>
+      <c r="D72" t="n">
+        <v>20230331</v>
       </c>
       <c r="E72" t="inlineStr">
         <is>
           <t>20시 11분</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>The number of 복수명사 단수동사</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>복수동사</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>단수동사</t>
+        </is>
+      </c>
+      <c r="D73" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>19시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>be used to 명사/ 동명사</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>~하곤 했다</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>~하는 것에 익숙하다</t>
+        </is>
+      </c>
+      <c r="D74" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>19시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>involve: 포함하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D75" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>19시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>be used to 명사/ 동명사</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>~하곤 했다</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>~하는 것에 익숙하다</t>
+        </is>
+      </c>
+      <c r="D76" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>20시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>fall : ~한 상태로 빠지다 (2형식) 과거완료</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>felled</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>fallen</t>
+        </is>
+      </c>
+      <c r="D77" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>20시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>suburbs 교외</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 복수 취급)</t>
+        </is>
+      </c>
+      <c r="D78" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>20시 08분</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>iron 철</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D79" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>20시 15분</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>at least</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>적어도, 자그마치</t>
+        </is>
+      </c>
+      <c r="D80" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>21시 45분</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>at least</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>~씩이나, ~에 못지 않게</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>적어도, 자그마치</t>
+        </is>
+      </c>
+      <c r="D81" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>21시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>since: 이래로</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>접속사</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>접속사, 전치사 (과거시제 사용)</t>
+        </is>
+      </c>
+      <c r="D82" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>21시 46분</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>would rather than 동사원형 than 동사원형</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D83" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>21시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>be ready to 동사원형</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>~ 하는 것이 어떻습니까?</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>~할 준비가 되어 있다</t>
+        </is>
+      </c>
+      <c r="D84" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>21시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>It is impossible for us to praise him too much: 우리는 그를 아무리 칭찬해도 지나치지 않다</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>overpraise</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>praise</t>
+        </is>
+      </c>
+      <c r="D85" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>22시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>learned</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>일류의</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>박식한</t>
+        </is>
+      </c>
+      <c r="D86" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>22시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>cannot help but 동사원형: ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D87" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>22시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>threaten</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>목적어절 should</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>목적어로 to부정사 사용</t>
+        </is>
+      </c>
+      <c r="D88" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>22시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>such 명사 ~ that 주어 + 동사</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>형용사/부사</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D89" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>22시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>such 명사 ~ that 주어 + 동사</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>형용사/부사</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="D90" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>22시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>I may[might] as well go jogging as sleep inside: 나는 안에서 자기보다는 조깅하러 가겠다</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="D91" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>22시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>very</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>비교급 수식</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>최상급 수식 : the very 최상급</t>
+        </is>
+      </c>
+      <c r="D92" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>22시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>be, become, stay, seem (보어)</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>목적어 형용사</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>형용사</t>
+        </is>
+      </c>
+      <c r="D93" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>22시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>fall : ~한 상태로 빠지다 (2형식) 과거형</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>felled</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>fell</t>
+        </is>
+      </c>
+      <c r="D94" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>22시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>scenery 경치, 풍경</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D95" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>22시 25분</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>a great[large] amount of 불가산명사: 많은 ~</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="D96" t="n">
+        <v>20230401</v>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>22시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>die : 죽다, 사망하다</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>비교급, 최상급 불가</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>수동태 불가 동사</t>
+        </is>
+      </c>
+      <c r="D97" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>08시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>follow ___ ___ ~을 끝까지 하다</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>up to</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>up on</t>
+        </is>
+      </c>
+      <c r="D98" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>08시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>not may well 동사원형: ~하지 않는 것도 당연하다</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>X : may well not 동사원형</t>
+        </is>
+      </c>
+      <c r="D99" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>08시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>peasontry 소작농</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>가산명사 (해석에 따라 단수(단체), 혹은 복수(구성원)로 해석)</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>가산명사 (단수 형태로 반드시 the와 함께 사용되며 복수 취급)</t>
+        </is>
+      </c>
+      <c r="D100" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>08시 57분</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>purpose 목적</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D101" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>08시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>statement 보고서</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D102" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>08시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>day 일</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D103" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>08시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>fond</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>감정동사</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D104" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>09시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>cannot but 동사원형 : ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D105" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>09시 00분</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>sooner or later</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>다소</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>머지않아</t>
+        </is>
+      </c>
+      <c r="D106" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>09시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>have other choice but to 동사원형: ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D107" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>09시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>subject A to 동명사: A가 ~하도록 복종시키다</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D108" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>09시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>cannot but 동사원형 : ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D109" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>09시 03분</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>He is not 둘 다 가능 as polite
+: 그는 숫기 없는 쪽이라기보다는 예의 바른 쪽에 더 가깝다</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>so much shy</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>둘 다 가능</t>
+        </is>
+      </c>
+      <c r="D110" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>09시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>break down：고장나다</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>down</t>
+        </is>
+      </c>
+      <c r="D111" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>09시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>I may[might] as well go jogging as sleep inside: 나는 안에서 자기보다는 조깅하러 가겠다</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>sleeping</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="D112" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>09시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>as little as</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>많아 봤자, 기껏해야</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>~밖에, 겨우</t>
+        </is>
+      </c>
+      <c r="D113" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>09시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>I may[might] as well go jogging as sleep inside: 나는 안에서 자기보다는 조깅하러 가겠다</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>sleeping</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="D114" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>09시 19분</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>be cut out to 동사원형: ~에 적임이다</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D115" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>09시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>risk: 무릅쓰다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D116" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>09시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>be cut out to 동사원형: ~에 적임이다</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D117" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>09시 23분</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>He could not help but wait: 그는 기다리지 않을 수 없었다</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>to wait</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="D118" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>09시 24분</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>admit: 인정하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D119" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>09시 26분</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>absolute 절대적인</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>목적어로 to부정사 사용</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>비교급, 최상급 불가</t>
+        </is>
+      </c>
+      <c r="D120" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>09시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>cannot but 동사원형 : ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D121" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>09시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>tea 차</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 단수 취급)</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="D122" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>09시 29분</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>lightning 번개</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="D123" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>09시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>(대과거) If S 과거완료, S 조동사 과거 현재완료</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>과거동사</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>조동사 과거 현재완료</t>
+        </is>
+      </c>
+      <c r="D124" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>09시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>never/not/no A but B</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>B보다 A를 더 선호하다</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>A 할 때마다 B한다</t>
+        </is>
+      </c>
+      <c r="D125" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>09시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>(대과거) If S 과거완료, S 조동사 과거 현재완료</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>조동사 현재/과거 동사원형</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>조동사 과거 현재완료</t>
+        </is>
+      </c>
+      <c r="D126" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>09시 30분</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>(대과거) If S 과거완료, S 조동사 과거 현재완료</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>will/can 동사원형</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>조동사 과거 현재완료</t>
+        </is>
+      </c>
+      <c r="D127" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>09시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>(by) far</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>비교급 수식</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>비교급 수식, 최상급 수식</t>
+        </is>
+      </c>
+      <c r="D128" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>09시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>B rather than A</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>B보다는 A하겠다</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="D129" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>09시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>He could not help but wait: 그는 기다리지 않을 수 없었다</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>to wait</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>wait</t>
+        </is>
+      </c>
+      <c r="D130" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E130" t="inlineStr">
+        <is>
+          <t>09시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>He doesn't swim, neither does she
+: 그는 수영을 하지 않고, 그녀도 하지 않는다</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>X: neither -&gt; and neither, neither는 접속사가 아니다</t>
+        </is>
+      </c>
+      <c r="D131" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E131" t="inlineStr">
+        <is>
+          <t>09시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>A is no less B than C is D</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>A가 B인 것은 C가 D인 것과 같다</t>
+        </is>
+      </c>
+      <c r="D132" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E132" t="inlineStr">
+        <is>
+          <t>09시 36분</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>Not until they are rejected by university many students know the importance of mathematics</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>X : many students know -&gt; do many students know</t>
+        </is>
+      </c>
+      <c r="D133" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E133" t="inlineStr">
+        <is>
+          <t>09시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>call off：취소하다</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>out</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>off</t>
+        </is>
+      </c>
+      <c r="D134" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E134" t="inlineStr">
+        <is>
+          <t>09시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>do nothing but 동사원형 : 오로지 ~하기만 하다</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D135" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E135" t="inlineStr">
+        <is>
+          <t>09시 38분</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>do nothing but 동사원형 : 오로지 ~하기만 하다</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D136" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E136" t="inlineStr">
+        <is>
+          <t>09시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>sort, kind, type</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>목적어로 to부정사 사용</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>of 무관사 명사</t>
+        </is>
+      </c>
+      <c r="D137" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E137" t="inlineStr">
+        <is>
+          <t>09시 40분</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>may as well A(동사원형) as B(동사원형)</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>B보다는 A하겠다</t>
+        </is>
+      </c>
+      <c r="D138" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E138" t="inlineStr">
+        <is>
+          <t>09시 42분</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>may as well A(동사원형) as B(동사원형)</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>B보다는 A하겠다</t>
+        </is>
+      </c>
+      <c r="D139" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E139" t="inlineStr">
+        <is>
+          <t>09시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>force</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>목적어절 should</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>목적격 보어 to부정사</t>
+        </is>
+      </c>
+      <c r="D140" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E140" t="inlineStr">
+        <is>
+          <t>09시 48분</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>interfere with</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>~에 개입하다</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>~을 방해하다</t>
+        </is>
+      </c>
+      <c r="D141" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E141" t="inlineStr">
+        <is>
+          <t>09시 51분</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>belongings 소유물</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>가산명사 (항상 복수 취급)</t>
+        </is>
+      </c>
+      <c r="D142" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E142" t="inlineStr">
+        <is>
+          <t>09시 52분</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>I prefer going jogging to sleeping inside: 나는 안에서 자기보다는 조깅하러 가겠다</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>sleep</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>sleeping</t>
+        </is>
+      </c>
+      <c r="D143" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E143" t="inlineStr">
+        <is>
+          <t>10시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>look ___ ___ ~을 존경하다</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>up for</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>up to</t>
+        </is>
+      </c>
+      <c r="D144" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E144" t="inlineStr">
+        <is>
+          <t>10시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>propose: 작정이다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D145" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E145" t="inlineStr">
+        <is>
+          <t>10시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>since: 이래로</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>접속사</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>접속사, 전치사 (과거시제 사용)</t>
+        </is>
+      </c>
+      <c r="D146" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E146" t="inlineStr">
+        <is>
+          <t>10시 05분</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>propose: 작정이다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D147" t="n">
+        <v>20230402</v>
+      </c>
+      <c r="E147" t="inlineStr">
+        <is>
+          <t>10시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>warn</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>목적어절 should</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>목적격 보어 to부정사</t>
+        </is>
+      </c>
+      <c r="D148" t="inlineStr">
+        <is>
+          <t>20230402</t>
+        </is>
+      </c>
+      <c r="E148" t="inlineStr">
+        <is>
+          <t>10시 09분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E148"/>
+  <dimension ref="A1:E179"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4129,14 +4129,790 @@
           <t>목적격 보어 to부정사</t>
         </is>
       </c>
-      <c r="D148" t="inlineStr">
-        <is>
-          <t>20230402</t>
-        </is>
+      <c r="D148" t="n">
+        <v>20230402</v>
       </c>
       <c r="E148" t="inlineStr">
         <is>
           <t>10시 09분</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>propose: 작정이다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D149" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E149" t="inlineStr">
+        <is>
+          <t>16시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>warn</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>목적어절 should</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>목적격 보어 to부정사</t>
+        </is>
+      </c>
+      <c r="D150" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E150" t="inlineStr">
+        <is>
+          <t>16시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>feel (감각동사)의 주격 보어</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>형용사, like 명사, of 명사</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>형용사, like 명사, as if/as though/like 절</t>
+        </is>
+      </c>
+      <c r="D151" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E151" t="inlineStr">
+        <is>
+          <t>16시 53분</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>He had not gone far before he came to his destination.</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="D152" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E152" t="inlineStr">
+        <is>
+          <t>16시 54분</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>class 계층</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>가산명사 (해석에 따라 단수(단체), 혹은 복수(구성원)로 해석)</t>
+        </is>
+      </c>
+      <c r="D153" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E153" t="inlineStr">
+        <is>
+          <t>16시 56분</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>pass [   ], ~으로 통하다</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>to</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="D154" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E154" t="inlineStr">
+        <is>
+          <t>16시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>job 직업</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>가산명사</t>
+        </is>
+      </c>
+      <c r="D155" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E155" t="inlineStr">
+        <is>
+          <t>16시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>late</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>최근에</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>늦게</t>
+        </is>
+      </c>
+      <c r="D156" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E156" t="inlineStr">
+        <is>
+          <t>16시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>A is no more B than C is D: A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>not</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>no</t>
+        </is>
+      </c>
+      <c r="D157" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E157" t="inlineStr">
+        <is>
+          <t>17시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>숫자 단위명사 명사</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>단위명사s</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>단위명사</t>
+        </is>
+      </c>
+      <c r="D158" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E158" t="inlineStr">
+        <is>
+          <t>17시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>not so much A as B: A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>rather than</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>as</t>
+        </is>
+      </c>
+      <c r="D159" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E159" t="inlineStr">
+        <is>
+          <t>17시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>A is not B any more than C is D: A가 B가 아닌 것은 C가 D가 아닌 것과 같다</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>rather than</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>than</t>
+        </is>
+      </c>
+      <c r="D160" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E160" t="inlineStr">
+        <is>
+          <t>17시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>promise: 약속하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="D161" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E161" t="inlineStr">
+        <is>
+          <t>17시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>fall : ~한 상태로 빠지다 (2형식) 과거형</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>felled</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>fell</t>
+        </is>
+      </c>
+      <c r="D162" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E162" t="inlineStr">
+        <is>
+          <t>17시 12분</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>promise: 약속하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="D163" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E163" t="inlineStr">
+        <is>
+          <t>17시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>complain [   ], ~에 대해 불평하다</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>with</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D164" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E164" t="inlineStr">
+        <is>
+          <t>17시 17분</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>complain [   ], ~에 대해 불평하다</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>for</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>of</t>
+        </is>
+      </c>
+      <c r="D165" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E165" t="inlineStr">
+        <is>
+          <t>17시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>dear</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>몹시</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>비싸게</t>
+        </is>
+      </c>
+      <c r="D166" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E166" t="inlineStr">
+        <is>
+          <t>17시 18분</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>in order to 동사원형, so as to 동사원형</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>~함으로써</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>~하기 위해</t>
+        </is>
+      </c>
+      <c r="D167" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E167" t="inlineStr">
+        <is>
+          <t>17시 20분</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>have no other choice but to부정사 : ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D168" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E168" t="inlineStr">
+        <is>
+          <t>17시 21분</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>so 형용사/부사 ~ that 주어 + 동사</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>명사</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>형용사/부사</t>
+        </is>
+      </c>
+      <c r="D169" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E169" t="inlineStr">
+        <is>
+          <t>17시 22분</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>loath</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>4형식</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D170" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E170" t="inlineStr">
+        <is>
+          <t>17시 27분</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>content</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>목적격 보어 to부정사</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>후치수식 형용사 (전치수식X)</t>
+        </is>
+      </c>
+      <c r="D171" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E171" t="inlineStr">
+        <is>
+          <t>17시 32분</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>have no other choice but to부정사 : ~하지 않을 수 없다</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>to부정사</t>
+        </is>
+      </c>
+      <c r="D172" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E172" t="inlineStr">
+        <is>
+          <t>17시 33분</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>never/not/no A but B</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>A라기보다는 오히려 B에 더 가까운</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>A 할 때마다 B한다</t>
+        </is>
+      </c>
+      <c r="D173" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E173" t="inlineStr">
+        <is>
+          <t>17시 34분</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>love: 사랑하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D174" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E174" t="inlineStr">
+        <is>
+          <t>17시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>This is the very best machine
+: 이건 최고의 기계이다</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>둘 다 가능</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>the very best: very를 제외한 나머지는 the 앞에 쓴다</t>
+        </is>
+      </c>
+      <c r="D175" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E175" t="inlineStr">
+        <is>
+          <t>17시 35분</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>like: 좋아하다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D176" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E176" t="inlineStr">
+        <is>
+          <t>17시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>사역동사 (목적격보어) ; make</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>동명사 O, 동사원형 O, to 동사원형 X, 과거분사(수동태) O</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>동명사 X, 동사원형 O, to 동사원형 X, 과거분사(수동태)O</t>
+        </is>
+      </c>
+      <c r="D177" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E177" t="inlineStr">
+        <is>
+          <t>17시 39분</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>still</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t xml:space="preserve">최상급 수식 </t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>비교급 수식</t>
+        </is>
+      </c>
+      <c r="D178" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E178" t="inlineStr">
+        <is>
+          <t>17시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>still</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>비교급 수식, 최상급 수식</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>비교급 수식</t>
+        </is>
+      </c>
+      <c r="D179" t="inlineStr">
+        <is>
+          <t>20230403</t>
+        </is>
+      </c>
+      <c r="E179" t="inlineStr">
+        <is>
+          <t>17시 50분</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어.xlsx
+++ b/학습자료/단답형/오답노트/오답노트_무한반복_객관식_영어.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E179"/>
+  <dimension ref="A1:E193"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4905,14 +4905,364 @@
           <t>비교급 수식</t>
         </is>
       </c>
-      <c r="D179" t="inlineStr">
-        <is>
-          <t>20230403</t>
-        </is>
+      <c r="D179" t="n">
+        <v>20230403</v>
       </c>
       <c r="E179" t="inlineStr">
         <is>
           <t>17시 50분</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>prefer A(to 동사원형) rather than B(to 동사원형, 동사원형): B보다 A를 더 선호하다</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D180" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E180" t="inlineStr">
+        <is>
+          <t>17시 55분</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>be exoected to 동사원형</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D181" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E181" t="inlineStr">
+        <is>
+          <t>17시 58분</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>be tied to 동명사: ~하는 것과 관련되다</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D182" t="n">
+        <v>20230403</v>
+      </c>
+      <c r="E182" t="inlineStr">
+        <is>
+          <t>17시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>be exoected to 동사원형</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D183" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E183" t="inlineStr">
+        <is>
+          <t>15시 59분</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>It will not be long before we know the truth.</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>X</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="D184" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E184" t="inlineStr">
+        <is>
+          <t>16시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>at the cost of</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>한도를 벗어난</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>~의 대가로, ~라는 희생을 치르고</t>
+        </is>
+      </c>
+      <c r="D185" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E185" t="inlineStr">
+        <is>
+          <t>16시 01분</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>feel like 동명사 : ~하고 싶은 심정이다</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>둘 다 가능</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="D186" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E186" t="inlineStr">
+        <is>
+          <t>16시 02분</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>be based on: ~에 기초를 두다</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>out of</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>on</t>
+        </is>
+      </c>
+      <c r="D187" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E187" t="inlineStr">
+        <is>
+          <t>16시 04분</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>come to 동사원형: ~하게 되다</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>동명사</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="D188" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E188" t="inlineStr">
+        <is>
+          <t>16시 06분</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>ink 잉크</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>불가산명사</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>불가산명사 (관사없이 단수형태)</t>
+        </is>
+      </c>
+      <c r="D189" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>16시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>subject (be subject to ~)</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>의심하다, 용의자</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>주제, 국민, 백성, 대상, 피실험자, (~하기 쉽다. ~에 영향을 받기 쉽다)</t>
+        </is>
+      </c>
+      <c r="D190" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>16시 07분</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>It is worth being read this book carefully</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>O</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>X: 형용사 worth는 능동태 동명사만 목적어로 취한다</t>
+        </is>
+      </c>
+      <c r="D191" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>16시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>propose: 작정이다 (목적어 유형)</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>to 동사원형</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>동명사, to부정사</t>
+        </is>
+      </c>
+      <c r="D192" t="n">
+        <v>20230405</v>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>16시 10분</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>All 주어 do is to부정사/동사원형 : …가 하는 것은 ~뿐이다</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>동사원형</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>to부정사/동명사</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>20230405</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>16시 12분</t>
         </is>
       </c>
     </row>
